--- a/Code/test_find_element.xlsx
+++ b/Code/test_find_element.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="热点词条_不定时更新" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,29 +28,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Included</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>L-39</t>
   </si>
   <si>
     <t>A380</t>
+  </si>
+  <si>
+    <t>所属分类</t>
+  </si>
+  <si>
+    <t>词条名称</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>当前状态</t>
+  </si>
+  <si>
+    <t>航天器类型及型号</t>
+  </si>
+  <si>
+    <t>神舟十一号飞船</t>
+  </si>
+  <si>
+    <t>神舟十一号</t>
+  </si>
+  <si>
+    <t>2016年10月14日</t>
+  </si>
+  <si>
+    <t>长征二号F运载火箭</t>
+  </si>
+  <si>
+    <t>天舟一号货运飞船</t>
+  </si>
+  <si>
+    <t>天舟一号</t>
+  </si>
+  <si>
+    <t>航天飞行术语</t>
+  </si>
+  <si>
+    <t>在轨驻留</t>
+  </si>
+  <si>
+    <t>空间交会对接技术</t>
+  </si>
+  <si>
+    <t>航天器部件与设计术语</t>
+  </si>
+  <si>
+    <t>环境控制与生命保障系统</t>
+  </si>
+  <si>
+    <t>航天基地</t>
+  </si>
+  <si>
+    <t>酒泉卫星发射中心</t>
+  </si>
+  <si>
+    <t>中国酒泉卫星发射中心</t>
+  </si>
+  <si>
+    <t>文昌卫星发射中心</t>
+  </si>
+  <si>
+    <t>中国文昌卫星发射中心</t>
+  </si>
+  <si>
+    <t>内蒙古四子王旗航天着陆场</t>
+  </si>
+  <si>
+    <t>航天职务与人物</t>
+  </si>
+  <si>
+    <t>刘竹生</t>
+  </si>
+  <si>
+    <t>相关热点</t>
+  </si>
+  <si>
+    <t>神舟十一号发射</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +144,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,21 +175,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -378,35 +653,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" style="11" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" style="3" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>